--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_266.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_266.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1005494505494506</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
-        </is>
+          <t>isophonics_125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07737656595431097</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['D', 'D/2', 'D/3', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
+          <t>[['D/b7', 'D/6', 'D/5', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:18.063729', '0:01:23.032800')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:36.473310', '0:00:41.361111')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_60</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_16</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1024305555555556</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:min7', 'A:7', 'E:min7']]</t>
-        </is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_85</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1278149726110773</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'F#:min7']]</t>
+          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.52, 19.63)]</t>
+          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.49, 18.86)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:28.190000', '0:00:41.460000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:25.750000', '0:01:30.900000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
-        </is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04735872235872236</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>[['C:7', 'F', 'F'], ['F', 'F', 'F:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(15.36, 45.82)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.7, 35.52)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:21.410000', '0:00:24.830000'), ('0:00:22.100000', '0:00:26.200000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:02:55.570000', '0:02:59.380000'), ('0:02:44.260000', '0:02:48.060000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2873563218390804</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(24.76, 30.02), (24.18, 27.66), (251.5, 255.38), (13.72, 18.34)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (8.2, 12.66), (38.18, 51.98), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:47.680000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:21.900000', '0:00:52.440000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07241953385127636</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1030405405405405</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'D']]</t>
+          <t>[['Ab', 'Ab', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['D', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(35.463242, 38.330907)]</t>
+          <t>[('0:03:54.420000', '0:03:58.130000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:20.672131', '0:00:29.530544')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2597402597402597</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(66.93, 72.56)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1577922077922078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.38, 9.89)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(10.2, 17.38)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:13.320000', '0:01:21.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(74.18, 87.7)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.64, 19.06)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.291354, 12.447726)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(30.424512, 35.962471)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3639705882352942</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['E', 'A', 'E', 'B', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.44, 43.32), (253.84, 257.6)]</t>
+          <t>[['A', 'D/5', 'A', 'E/4', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(34.24, 39.86), (0.58, 8.96)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:19.435000', '0:00:54.729000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:17.913000', '0:00:28.337000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1005656819610308</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Eb', 'Bb']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(65.706, 71.624)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.879478, 12.382607)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.28, 49.28)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(116.7, 119.48)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0262208067940552</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B/6', 'B/5', 'E:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'F:min7']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.209188, 3.849274)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.53, 13.08)]</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08282828282828283</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Ab'], ['Eb', 'Eb', 'Eb', 'Eb:7'], ['Bb:7', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F', 'F'], ['C', 'C', 'C', 'C:7'], ['G:7', 'C', 'C', 'C']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(92.53, 94.43), (18.47, 20.84), (18.07, 20.04)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(40.18, 42.1), (38.25, 39.86), (47.25, 51.41)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2455357142857143</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.829138, 15.586961)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.26, 19.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(45.72, 49.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
